--- a/results.xlsx
+++ b/results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reetam/Documents/GitHub/nflows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/reetamm_uark_edu/Documents/documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71AA652-FC61-AE4F-B096-97E2CFA3D7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{B71AA652-FC61-AE4F-B096-97E2CFA3D7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A80146-1973-4B66-BBFF-7819980B308A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="application" sheetId="1" r:id="rId1"/>
+    <sheet name="sim" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Wass</t>
   </si>
@@ -96,13 +97,22 @@
   </si>
   <si>
     <t>SW</t>
+  </si>
+  <si>
+    <t>SPCDE</t>
+  </si>
+  <si>
+    <t>SPCDE_QM</t>
+  </si>
+  <si>
+    <t>SPCDE_CCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +132,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,11 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,13 +504,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF67CFB-EEEC-374D-A628-6D98B015699A}">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="A2:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -523,8 +542,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -539,10 +558,10 @@
       <c r="E3">
         <v>0.30009999999999998</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.31950000000000001</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.32050000000000001</v>
       </c>
       <c r="H3">
@@ -566,12 +585,12 @@
         <v>0.31580000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.92020000000000002</v>
       </c>
       <c r="D4">
@@ -607,8 +626,8 @@
         <v>1.0121</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -648,8 +667,8 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -665,7 +684,7 @@
       <c r="F6">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>4.87E-2</v>
       </c>
       <c r="H6">
@@ -689,8 +708,8 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -699,7 +718,7 @@
       <c r="C7">
         <v>0.54269999999999996</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.12559999999999999</v>
       </c>
       <c r="E7">
@@ -732,21 +751,21 @@
         <v>0.11609999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <v>2.3285</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1.6519999999999999</v>
       </c>
       <c r="E8">
         <v>1.7358</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1.6948000000000001</v>
       </c>
       <c r="G8">
@@ -773,8 +792,8 @@
         <v>1.6704000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -787,10 +806,10 @@
       <c r="E9">
         <v>0.1222</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.1308</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.1308</v>
       </c>
       <c r="H9">
@@ -814,8 +833,8 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -855,8 +874,8 @@
         <v>0.14760000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -869,10 +888,10 @@
       <c r="E11">
         <v>0.1205</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.1138</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.1147</v>
       </c>
       <c r="H11">
@@ -896,7 +915,7 @@
         <v>9.0800000000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -909,10 +928,10 @@
       <c r="E12">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="H12">
@@ -936,7 +955,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -946,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -956,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -966,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1006,8 +1025,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1025,7 +1044,7 @@
       <c r="F17">
         <v>0.90129999999999999</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>0.89590000000000003</v>
       </c>
       <c r="H17">
@@ -1049,8 +1068,8 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1063,10 +1082,10 @@
       <c r="E18">
         <v>1.4198</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>1.246</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>1.2639</v>
       </c>
       <c r="H18">
@@ -1090,8 +1109,8 @@
         <v>1.0648</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1131,8 +1150,8 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1167,7 @@
       <c r="F20">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="H20">
@@ -1172,8 +1191,8 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1191,7 +1210,7 @@
       <c r="F21">
         <v>0.26590000000000003</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>0.24410000000000001</v>
       </c>
       <c r="H21">
@@ -1215,8 +1234,8 @@
         <v>0.24410000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1251,7 @@
       <c r="F22">
         <v>4.9421999999999997</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>4.7138999999999998</v>
       </c>
       <c r="H22">
@@ -1256,8 +1275,8 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1270,10 +1289,10 @@
       <c r="E23">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>9.98E-2</v>
       </c>
       <c r="H23">
@@ -1297,8 +1316,8 @@
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1338,8 +1357,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1352,10 +1371,10 @@
       <c r="E25">
         <v>5.28E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>5.6500000000000002E-2</v>
       </c>
       <c r="H25">
@@ -1379,7 +1398,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1392,10 +1411,10 @@
       <c r="E26">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="H26">
@@ -1428,4 +1447,167 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE52D54D-64D7-4A21-8D0D-8FEC90DF1760}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.4936</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.4628000000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.2238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.9826999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.9484999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.59930000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.52869999999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.1285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.1591999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.619</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.46789999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.45219999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.2258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/reetamm_uark_edu/Documents/documents/GitHub/nflows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reetam/Documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{B71AA652-FC61-AE4F-B096-97E2CFA3D7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A80146-1973-4B66-BBFF-7819980B308A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9263F21-C0E4-A343-8A14-496CEE46108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="16240" windowHeight="15720" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" r:id="rId1"/>
-    <sheet name="sim" sheetId="2" r:id="rId2"/>
+    <sheet name="application_final" sheetId="3" r:id="rId2"/>
+    <sheet name="sim" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Wass</t>
   </si>
@@ -106,6 +107,15 @@
   </si>
   <si>
     <t>SPCDE_CCA</t>
+  </si>
+  <si>
+    <t>m=5</t>
+  </si>
+  <si>
+    <t>m=3</t>
+  </si>
+  <si>
+    <t>m=10</t>
   </si>
 </sst>
 </file>
@@ -164,10 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,13 +514,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF67CFB-EEEC-374D-A628-6D98B015699A}">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="A2:M26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -542,8 +555,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -585,8 +598,8 @@
         <v>0.31580000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -626,8 +639,8 @@
         <v>1.0121</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -667,8 +680,8 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -708,8 +721,8 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -751,8 +764,8 @@
         <v>0.11609999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -792,8 +805,8 @@
         <v>1.6704000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -833,8 +846,8 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -874,8 +887,8 @@
         <v>0.14760000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -915,7 +928,7 @@
         <v>9.0800000000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -955,7 +968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -965,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -975,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -985,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1025,8 +1038,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1068,8 +1081,8 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1109,8 +1122,8 @@
         <v>1.0648</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1150,8 +1163,8 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1191,8 +1204,8 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1234,8 +1247,8 @@
         <v>0.24410000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1275,8 +1288,8 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1316,8 +1329,8 @@
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1357,8 +1370,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1411,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1450,16 +1463,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89672D6A-14D1-F241-87EF-EAF3331B59EB}">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.32840000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.91169999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.14580000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1.927</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.276</v>
+      </c>
+      <c r="E7">
+        <v>1.2894000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.3023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.1764</v>
+      </c>
+      <c r="D8">
+        <v>0.17080000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.1036</v>
+      </c>
+      <c r="G8">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="G9">
+        <v>9.3399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1.3453999999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.6735</v>
+      </c>
+      <c r="E15">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1.2756000000000001</v>
+      </c>
+      <c r="D16">
+        <v>1.7665999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="G16">
+        <v>1.0222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="G17">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.2331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4.0202999999999998</v>
+      </c>
+      <c r="D19">
+        <v>4.66</v>
+      </c>
+      <c r="E19">
+        <v>4.1157000000000004</v>
+      </c>
+      <c r="G19">
+        <v>4.0395000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.1656</v>
+      </c>
+      <c r="E20">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="G20">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.36E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.58E-2</v>
+      </c>
+      <c r="G21">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="D22">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE52D54D-64D7-4A21-8D0D-8FEC90DF1760}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1479,126 +1841,126 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1.4936</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1.4628000000000001</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.2238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="E2" s="3">
+        <v>0.22070000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.9826999999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.9484999999999999</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.59930000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="E3" s="3">
+        <v>0.58260000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.52869999999999995</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.51870000000000005</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.1285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="3">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2.1591999999999998</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.619</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.46789999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="E5" s="3">
+        <v>0.46189999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.2452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="E6" s="3">
+        <v>0.24970000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.20150000000000001</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="E7" s="3">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.45219999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.48220000000000002</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.2258</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.30159999999999998</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.37380000000000002</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reetam/Documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9263F21-C0E4-A343-8A14-496CEE46108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A870AB2-5327-FB41-9914-4A4FDBFDCE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="16240" windowHeight="15720" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
-    <sheet name="application" sheetId="1" r:id="rId1"/>
+    <sheet name="application" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="application_final" sheetId="3" r:id="rId2"/>
     <sheet name="sim" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>Wass</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>m=10</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Full data</t>
+  </si>
+  <si>
+    <t>m=10,nolonlat</t>
   </si>
 </sst>
 </file>
@@ -150,12 +162,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,6 +196,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF67CFB-EEEC-374D-A628-6D98B015699A}">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1464,15 +1483,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89672D6A-14D1-F241-87EF-EAF3331B59EB}">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1483,16 +1507,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1506,13 +1530,16 @@
         <v>0.30730000000000002</v>
       </c>
       <c r="E3">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="F3">
         <v>0.31950000000000001</v>
       </c>
       <c r="G3">
         <v>0.32840000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -1524,31 +1551,37 @@
         <v>0.94620000000000004</v>
       </c>
       <c r="E4">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="F4">
         <v>0.90810000000000002</v>
       </c>
       <c r="G4">
         <v>0.91169999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.64E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.73E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1562,13 +1595,16 @@
         <v>0.12559999999999999</v>
       </c>
       <c r="E6">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="F6">
         <v>0.14860000000000001</v>
       </c>
       <c r="G6">
         <v>0.14580000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -1580,13 +1616,16 @@
         <v>1.276</v>
       </c>
       <c r="E7">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="F7">
         <v>1.2894000000000001</v>
       </c>
       <c r="G7">
         <v>1.3023</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>4</v>
@@ -1598,31 +1637,37 @@
         <v>0.17080000000000001</v>
       </c>
       <c r="E8">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F8">
         <v>0.1036</v>
       </c>
       <c r="G8">
         <v>0.1032</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="D9">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="E9">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="G9">
-        <v>9.3399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.1275</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.12839999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1635,11 +1680,14 @@
       <c r="E10">
         <v>8.0000000000000004E-4</v>
       </c>
+      <c r="F10">
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="G10">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1650,10 +1698,19 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1667,13 +1724,16 @@
         <v>1.6735</v>
       </c>
       <c r="E15">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="F15">
         <v>0.90129999999999999</v>
       </c>
       <c r="G15">
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>5</v>
@@ -1685,31 +1745,37 @@
         <v>1.7665999999999999</v>
       </c>
       <c r="E16">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F16">
         <v>0.95640000000000003</v>
       </c>
       <c r="G16">
         <v>1.0222</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="D17">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="E17">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="G17">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1723,13 +1789,16 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="E18">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="F18">
         <v>0.26590000000000003</v>
       </c>
       <c r="G18">
         <v>0.2331</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>5</v>
@@ -1741,13 +1810,16 @@
         <v>4.66</v>
       </c>
       <c r="E19">
+        <v>3.8509000000000002</v>
+      </c>
+      <c r="F19">
         <v>4.1157000000000004</v>
       </c>
       <c r="G19">
         <v>4.0395000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>4</v>
@@ -1759,31 +1831,37 @@
         <v>0.1656</v>
       </c>
       <c r="E20">
+        <v>8.09E-2</v>
+      </c>
+      <c r="F20">
         <v>8.4599999999999995E-2</v>
       </c>
       <c r="G20">
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="D21">
-        <v>4.36E-2</v>
-      </c>
-      <c r="E21">
-        <v>4.58E-2</v>
-      </c>
-      <c r="G21">
-        <v>4.2900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1796,16 +1874,374 @@
       <c r="E22">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="F22">
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G22">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.1057</v>
+      </c>
+      <c r="F27">
+        <v>0.1202</v>
+      </c>
+      <c r="G27">
+        <v>0.12809999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.2329</v>
+      </c>
+      <c r="F28">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>0.4083</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.1537</v>
+      </c>
+      <c r="F30">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="G30">
+        <v>7.7600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="G31">
+        <v>0.67479999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="F32">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.1439</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="F34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.2413000000000001</v>
+      </c>
+      <c r="D39">
+        <v>1.2391000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.125</v>
+      </c>
+      <c r="G39">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1.2202</v>
+      </c>
+      <c r="D40">
+        <v>1.1217999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.42259999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <v>2.06E-2</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="D42">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="F42">
+        <v>0.216</v>
+      </c>
+      <c r="G42">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>2.0962000000000001</v>
+      </c>
+      <c r="D43">
+        <v>1.9834000000000001</v>
+      </c>
+      <c r="F43">
+        <v>1.9207000000000001</v>
+      </c>
+      <c r="G43">
+        <v>1.9759</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.1111</v>
+      </c>
+      <c r="D44">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="F44">
+        <v>2.07E-2</v>
+      </c>
+      <c r="G44">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D46">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F46">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G46">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A45"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reetam/Documents/GitHub/nflows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/reetamm_uark_edu/Documents/documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A870AB2-5327-FB41-9914-4A4FDBFDCE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="900" yWindow="2205" windowWidth="9390" windowHeight="9810" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" state="hidden" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>Full data</t>
   </si>
   <si>
-    <t>m=10,nolonlat</t>
+    <t>m=5,nolonlat</t>
   </si>
 </sst>
 </file>
@@ -195,8 +195,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,12 +537,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -574,8 +574,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -617,8 +617,8 @@
         <v>0.31580000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -658,8 +658,8 @@
         <v>1.0121</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -699,8 +699,8 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -740,8 +740,8 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -783,8 +783,8 @@
         <v>0.11609999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -824,8 +824,8 @@
         <v>1.6704000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -865,8 +865,8 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -906,8 +906,8 @@
         <v>0.14760000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -947,7 +947,7 @@
         <v>9.0800000000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1057,8 +1057,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1100,8 +1100,8 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1141,8 +1141,8 @@
         <v>1.0648</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1182,8 +1182,8 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1223,8 +1223,8 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1266,8 +1266,8 @@
         <v>0.24410000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1307,8 +1307,8 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1348,8 +1348,8 @@
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1389,8 +1389,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1485,18 +1485,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89672D6A-14D1-F241-87EF-EAF3331B59EB}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1515,9 +1515,12 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -1538,9 +1541,12 @@
       <c r="G3">
         <v>0.32840000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="H3">
+        <v>0.3216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1559,30 +1565,36 @@
       <c r="G4">
         <v>0.91169999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="H4">
+        <v>0.88160000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>3.73E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="4">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1603,9 +1615,12 @@
       <c r="G6">
         <v>0.14580000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="H6">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1624,9 +1639,12 @@
       <c r="G7">
         <v>1.3023</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="H7">
+        <v>1.2714000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1645,29 +1663,35 @@
       <c r="G8">
         <v>0.1032</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="H8">
+        <v>0.10349999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.11650000000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.12740000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.1275</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.12839999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="4">
+        <v>0.12770000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1686,8 +1710,11 @@
       <c r="G10">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1710,8 +1737,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -1732,9 +1759,12 @@
       <c r="G15">
         <v>0.89800000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="H15">
+        <v>0.90159999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -1753,30 +1783,36 @@
       <c r="G16">
         <v>1.0222</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="H16">
+        <v>0.98860000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>3.5499999999999997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="H17" s="4">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -1797,9 +1833,12 @@
       <c r="G18">
         <v>0.2331</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="H18">
+        <v>0.24440000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1818,9 +1857,12 @@
       <c r="G19">
         <v>4.0395000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="H19">
+        <v>3.8353000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1839,29 +1881,35 @@
       <c r="G20">
         <v>8.5800000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+      <c r="H20">
+        <v>8.48E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="4">
+        <v>7.9100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1880,18 +1928,21 @@
       <c r="G22">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1910,12 +1961,9 @@
       <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
@@ -1934,8 +1982,8 @@
         <v>0.12809999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -1952,27 +2000,27 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
@@ -1991,8 +2039,8 @@
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -2009,8 +2057,8 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -2027,26 +2075,26 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>0.1439</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2111,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2083,8 +2131,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
@@ -2103,8 +2151,8 @@
         <v>0.1245</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -2121,27 +2169,27 @@
         <v>0.42259999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
         <v>2.06E-2</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
@@ -2160,8 +2208,8 @@
         <v>0.2301</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -2178,8 +2226,8 @@
         <v>1.9759</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -2196,26 +2244,26 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -2255,9 +2303,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2277,8 +2325,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -2294,8 +2342,8 @@
         <v>0.22070000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2309,8 +2357,8 @@
         <v>0.58260000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2324,8 +2372,8 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -2341,8 +2389,8 @@
         <v>0.46189999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2356,8 +2404,8 @@
         <v>0.24970000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2371,8 +2419,8 @@
         <v>3.8899999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -2386,7 +2434,7 @@
         <v>0.2258</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/reetamm_uark_edu/Documents/documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F1DC16-EE96-483C-9E8A-4C3C599E3607}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2205" windowWidth="9390" windowHeight="9810" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
   <si>
     <t>Wass</t>
   </si>
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,8 +161,23 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,11 +190,41 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -188,15 +233,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,6 +271,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,7 +638,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -618,7 +681,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -659,7 +722,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -700,7 +763,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -741,7 +804,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -784,7 +847,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -825,7 +888,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -866,7 +929,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -907,7 +970,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1121,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1101,7 +1164,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1205,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="15"/>
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1246,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="15"/>
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1287,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1267,7 +1330,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="15"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1308,7 +1371,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="15"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1412,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1453,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="15"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1486,41 +1549,46 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -1529,7 +1597,7 @@
       <c r="C3">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0.30730000000000002</v>
       </c>
       <c r="E3">
@@ -1538,7 +1606,7 @@
       <c r="F3">
         <v>0.31950000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>0.32840000000000003</v>
       </c>
       <c r="H3">
@@ -1546,11 +1614,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.74909999999999999</v>
       </c>
       <c r="D4">
@@ -1562,39 +1630,39 @@
       <c r="F4">
         <v>0.90810000000000002</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <v>0.91169999999999995</v>
       </c>
       <c r="H4">
         <v>0.88160000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="14">
         <v>3.73E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1603,7 +1671,7 @@
       <c r="C6">
         <v>0.54269999999999996</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.12559999999999999</v>
       </c>
       <c r="E6">
@@ -1612,7 +1680,7 @@
       <c r="F6">
         <v>0.14860000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <v>0.14580000000000001</v>
       </c>
       <c r="H6">
@@ -1620,14 +1688,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <v>1.927</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>1.276</v>
       </c>
       <c r="E7">
@@ -1636,7 +1704,7 @@
       <c r="F7">
         <v>1.2894000000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
         <v>1.3023</v>
       </c>
       <c r="H7">
@@ -1644,7 +1712,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1660,34 +1728,34 @@
       <c r="F8">
         <v>0.1036</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>0.1032</v>
       </c>
       <c r="H8">
         <v>0.10349999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>0.11650000000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>0.12740000000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>0.1275</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="12">
         <v>0.12839999999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <v>0.12770000000000001</v>
       </c>
     </row>
@@ -1707,38 +1775,38 @@
       <c r="F10">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="H10">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -1756,7 +1824,7 @@
       <c r="F15">
         <v>0.90129999999999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="10">
         <v>0.89800000000000002</v>
       </c>
       <c r="H15">
@@ -1764,7 +1832,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="16"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -1780,39 +1848,39 @@
       <c r="F16">
         <v>0.95640000000000003</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="10">
         <v>1.0222</v>
       </c>
       <c r="H16">
         <v>0.98860000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="14">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -1830,7 +1898,7 @@
       <c r="F18">
         <v>0.26590000000000003</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>0.2331</v>
       </c>
       <c r="H18">
@@ -1838,11 +1906,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>4.0202999999999998</v>
       </c>
       <c r="D19">
@@ -1854,7 +1922,7 @@
       <c r="F19">
         <v>4.1157000000000004</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="11">
         <v>4.0395000000000003</v>
       </c>
       <c r="H19">
@@ -1862,11 +1930,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>8.3900000000000002E-2</v>
       </c>
       <c r="D20">
@@ -1878,34 +1946,34 @@
       <c r="F20">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="11">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="H20">
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="6">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="14">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="6">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
@@ -1925,7 +1993,7 @@
       <c r="F22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H22">
@@ -1937,33 +2005,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
@@ -1972,125 +2041,125 @@
       <c r="C27">
         <v>0.12230000000000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>0.1057</v>
       </c>
       <c r="F27">
         <v>0.1202</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="11">
         <v>0.12809999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="16"/>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28">
         <v>0.28770000000000001</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>0.2329</v>
       </c>
       <c r="F28">
         <v>0.34620000000000001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="11">
         <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="6">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="14">
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>0.4083</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.1537</v>
       </c>
       <c r="F30">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="11">
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="16"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31">
         <v>0.54579999999999995</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>0.31809999999999999</v>
       </c>
       <c r="F31">
         <v>0.74119999999999997</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="11">
         <v>0.67479999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="16"/>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>0.18640000000000001</v>
       </c>
       <c r="F32">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="10">
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="6">
         <v>0.1439</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="14">
         <v>7.3400000000000007E-2</v>
       </c>
     </row>
@@ -2107,32 +2176,32 @@
       <c r="F34">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
@@ -2147,12 +2216,12 @@
       <c r="F39">
         <v>0.125</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="10">
         <v>0.1245</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="16"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -2165,31 +2234,31 @@
       <c r="F40">
         <v>0.39129999999999998</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="10">
         <v>0.42259999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="6">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
         <v>2.06E-2</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="14">
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
@@ -2204,12 +2273,12 @@
       <c r="F42">
         <v>0.216</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="10">
         <v>0.2301</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="16"/>
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -2222,12 +2291,12 @@
       <c r="F43">
         <v>1.9207000000000001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="10">
         <v>1.9759</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="16"/>
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -2240,26 +2309,26 @@
       <c r="F44">
         <v>2.07E-2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="10">
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="6">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="14">
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
@@ -2276,7 +2345,7 @@
       <c r="F46">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
@@ -2300,15 +2369,12 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
@@ -2326,7 +2392,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -2339,99 +2405,99 @@
         <v>1.4628000000000001</v>
       </c>
       <c r="E2" s="3">
-        <v>0.22070000000000001</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="15"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>1.9826999999999999</v>
+        <v>1.4676</v>
       </c>
       <c r="D3" s="3">
-        <v>1.9484999999999999</v>
+        <v>1.5238</v>
       </c>
       <c r="E3" s="3">
-        <v>0.58260000000000001</v>
+        <v>0.45979999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>0.52869999999999995</v>
+        <v>0.47649999999999998</v>
       </c>
       <c r="D4" s="3">
-        <v>0.51870000000000005</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.1295</v>
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.1019</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>2.1591999999999998</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>1.619</v>
+        <v>0.1053</v>
       </c>
       <c r="E5" s="3">
-        <v>0.46189999999999998</v>
+        <v>7.5600000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>7.9000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>0.16700000000000001</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>0.24970000000000001</v>
+        <v>0.30819999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>0.26100000000000001</v>
+        <v>0.26090000000000002</v>
       </c>
       <c r="D7" s="3">
-        <v>0.20150000000000001</v>
+        <v>0.2014</v>
       </c>
       <c r="E7" s="3">
-        <v>3.8899999999999997E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>0.45219999999999999</v>
+        <v>0.4022</v>
       </c>
       <c r="D8" s="3">
-        <v>0.48220000000000002</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.2258</v>
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.21820000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,13 +2505,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>0.30159999999999998</v>
+        <v>0.38040000000000002</v>
       </c>
       <c r="D9" s="3">
-        <v>0.37380000000000002</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="E9" s="3">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/reetamm_uark_edu/Documents/documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F1DC16-EE96-483C-9E8A-4C3C599E3607}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0572A72B-7CF5-441B-9CCC-180B05D3DE9E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="-16320" yWindow="-5340" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>Wass</t>
   </si>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,11 +251,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,10 +278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,7 +641,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -681,7 +684,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -722,7 +725,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -763,7 +766,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -804,7 +807,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -847,7 +850,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -929,7 +932,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -970,7 +973,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1124,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1164,7 +1167,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1208,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1249,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1290,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1330,7 +1333,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1374,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1415,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1456,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1546,25 +1549,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89672D6A-14D1-F241-87EF-EAF3331B59EB}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="11"/>
+    <col min="8" max="8" width="11" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1583,12 +1588,15 @@
       <c r="G2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -1609,12 +1617,15 @@
       <c r="G3" s="11">
         <v>0.32840000000000003</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="23">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="I3">
         <v>0.3216</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1633,12 +1644,15 @@
       <c r="G4" s="11">
         <v>0.91169999999999995</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="23">
+        <v>1.0606</v>
+      </c>
+      <c r="I4">
         <v>0.88160000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1657,12 +1671,15 @@
       <c r="G5" s="14">
         <v>3.73E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="21">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="I5" s="6">
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1683,12 +1700,15 @@
       <c r="G6" s="11">
         <v>0.14580000000000001</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="23">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="I6">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1707,12 +1727,15 @@
       <c r="G7" s="11">
         <v>1.3023</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="23">
+        <v>1.6036999999999999</v>
+      </c>
+      <c r="I7">
         <v>1.2714000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1731,12 +1754,15 @@
       <c r="G8" s="10">
         <v>0.1032</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="19">
+        <v>0.1074</v>
+      </c>
+      <c r="I8">
         <v>0.10349999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1755,11 +1781,14 @@
       <c r="G9" s="12">
         <v>0.12839999999999999</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="22">
+        <v>0.1605</v>
+      </c>
+      <c r="I9" s="6">
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1778,11 +1807,14 @@
       <c r="G10" s="10">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="19">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I10">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1801,12 +1833,15 @@
       <c r="G14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -1827,12 +1862,15 @@
       <c r="G15" s="10">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="19">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="I15">
         <v>0.90159999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -1851,12 +1889,15 @@
       <c r="G16" s="10">
         <v>1.0222</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="19">
+        <v>1.1033999999999999</v>
+      </c>
+      <c r="I16">
         <v>0.98860000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1875,12 +1916,15 @@
       <c r="G17" s="14">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="21">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="I17" s="6">
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -1901,12 +1945,15 @@
       <c r="G18" s="10">
         <v>0.2331</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="19">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="I18">
         <v>0.24440000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1925,12 +1972,15 @@
       <c r="G19" s="11">
         <v>4.0395000000000003</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="24">
+        <v>5.0574000000000003</v>
+      </c>
+      <c r="I19">
         <v>3.8353000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1949,12 +1999,15 @@
       <c r="G20" s="11">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="24">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="I20">
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
@@ -1973,11 +2026,14 @@
       <c r="G21" s="14">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="21">
+        <v>0.1011</v>
+      </c>
+      <c r="I21" s="6">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1996,22 +2052,26 @@
       <c r="G22" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="19">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I22">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2030,9 +2090,10 @@
       <c r="G26" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
@@ -2051,8 +2112,8 @@
         <v>0.12809999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -2069,8 +2130,8 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -2087,9 +2148,10 @@
       <c r="G29" s="14">
         <v>2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
@@ -2108,8 +2170,8 @@
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -2126,8 +2188,8 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -2143,9 +2205,10 @@
       <c r="G32" s="10">
         <v>3.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
       <c r="B33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2162,8 +2225,9 @@
       <c r="G33" s="14">
         <v>7.3400000000000007E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -2179,8 +2243,9 @@
       <c r="G34" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="19"/>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
@@ -2199,9 +2264,10 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
@@ -2219,9 +2285,10 @@
       <c r="G39" s="10">
         <v>0.1245</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -2237,9 +2304,10 @@
       <c r="G40" s="10">
         <v>0.42259999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
       <c r="B41" s="6" t="s">
         <v>2</v>
       </c>
@@ -2256,9 +2324,10 @@
       <c r="G41" s="14">
         <v>1.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
@@ -2276,9 +2345,10 @@
       <c r="G42" s="10">
         <v>0.2301</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -2294,9 +2364,10 @@
       <c r="G43" s="10">
         <v>1.9759</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -2312,9 +2383,10 @@
       <c r="G44" s="10">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
       <c r="B45" s="6" t="s">
         <v>2</v>
       </c>
@@ -2331,8 +2403,9 @@
       <c r="G45" s="14">
         <v>4.2900000000000001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -2348,6 +2421,7 @@
       <c r="G46" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H46" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2369,7 +2443,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2466,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -2407,9 +2481,15 @@
       <c r="E2" s="3">
         <v>0.2238</v>
       </c>
+      <c r="F2" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.51E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2422,9 +2502,15 @@
       <c r="E3" s="3">
         <v>0.45979999999999999</v>
       </c>
+      <c r="F3" s="3">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7.0499999999999993E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2434,12 +2520,18 @@
       <c r="D4" s="3">
         <v>0.46210000000000001</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>0.1019</v>
       </c>
+      <c r="F4">
+        <v>0.44259999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.44259999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -2454,9 +2546,15 @@
       <c r="E5" s="3">
         <v>7.5600000000000001E-2</v>
       </c>
+      <c r="F5" s="3">
+        <v>3.09E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.4899999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2469,9 +2567,15 @@
       <c r="E6" s="3">
         <v>0.30819999999999997</v>
       </c>
+      <c r="F6" s="3">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.0699999999999997E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2484,9 +2588,15 @@
       <c r="E7" s="3">
         <v>3.5400000000000001E-2</v>
       </c>
+      <c r="F7" s="3">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.3699999999999999E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -2496,8 +2606,14 @@
       <c r="D8" s="3">
         <v>0.44869999999999999</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>0.21820000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.30420000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2511,6 +2627,12 @@
         <v>0.36930000000000002</v>
       </c>
       <c r="E9" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G9" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/reetamm_uark_edu/Documents/documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0572A72B-7CF5-441B-9CCC-180B05D3DE9E}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAAE44B8-B85D-4698-B8E8-CE56753D87B9}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5340" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="-16320" yWindow="-5340" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="30">
   <si>
     <t>Wass</t>
   </si>
@@ -134,6 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -177,7 +180,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,36 +242,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,6 +295,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,7 +662,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -684,7 +705,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -725,7 +746,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -766,7 +787,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -807,7 +828,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -850,7 +871,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -891,7 +912,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -932,7 +953,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -973,7 +994,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1145,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1167,7 +1188,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1229,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +1270,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1311,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1333,7 +1354,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1374,7 +1395,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="10"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1436,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="10"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1477,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1549,879 +1570,1308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89672D6A-14D1-F241-87EF-EAF3331B59EB}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="11"/>
-    <col min="8" max="8" width="11" style="20"/>
+    <col min="1" max="1" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="5.5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="21">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="21">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="E3" s="13">
         <v>0.30730000000000002</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="21">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="G3" s="21">
         <v>0.30480000000000002</v>
       </c>
-      <c r="F3">
+      <c r="H3" s="27">
         <v>0.31950000000000001</v>
       </c>
-      <c r="G3" s="11">
+      <c r="I3" s="27"/>
+      <c r="J3" s="22">
         <v>0.32840000000000003</v>
       </c>
-      <c r="H3" s="23">
+      <c r="K3" s="21">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="I3">
+      <c r="L3" s="12">
         <v>0.3216</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="13">
         <v>0.74909999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="21">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="E4" s="21">
         <v>0.94620000000000004</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="21">
+        <v>1.0853999999999999</v>
+      </c>
+      <c r="G4" s="21">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F4">
+      <c r="H4" s="27">
         <v>0.90810000000000002</v>
       </c>
-      <c r="G4" s="11">
+      <c r="I4" s="27"/>
+      <c r="J4" s="22">
         <v>0.91169999999999995</v>
       </c>
-      <c r="H4" s="23">
+      <c r="K4" s="21">
         <v>1.0606</v>
       </c>
-      <c r="I4">
+      <c r="L4" s="12">
         <v>0.88160000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="23">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="23">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E5" s="17">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="23">
+        <v>4.87E-2</v>
+      </c>
+      <c r="G5" s="23">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="H5" s="27">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="I5" s="27"/>
+      <c r="J5" s="16">
         <v>3.73E-2</v>
       </c>
-      <c r="H5" s="21">
+      <c r="K5" s="23">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="L5" s="15">
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="21">
         <v>0.54269999999999996</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="21">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="E6" s="13">
         <v>0.12559999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G6" s="21">
         <v>0.13969999999999999</v>
       </c>
-      <c r="F6">
+      <c r="H6" s="27">
         <v>0.14860000000000001</v>
       </c>
-      <c r="G6" s="11">
+      <c r="I6" s="27"/>
+      <c r="J6" s="22">
         <v>0.14580000000000001</v>
       </c>
-      <c r="H6" s="23">
+      <c r="K6" s="21">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="I6">
+      <c r="L6" s="12">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="21">
         <v>1.927</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="21">
+        <v>1.5302</v>
+      </c>
+      <c r="E7" s="13">
         <v>1.276</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="21">
+        <v>1.6495</v>
+      </c>
+      <c r="G7" s="21">
         <v>1.2889999999999999</v>
       </c>
-      <c r="F7">
+      <c r="H7" s="27">
         <v>1.2894000000000001</v>
       </c>
-      <c r="G7" s="11">
+      <c r="I7" s="27"/>
+      <c r="J7" s="22">
         <v>1.3023</v>
       </c>
-      <c r="H7" s="23">
+      <c r="K7" s="21">
         <v>1.6036999999999999</v>
       </c>
-      <c r="I7">
+      <c r="L7" s="12">
         <v>1.2714000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="21">
         <v>0.1764</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="21">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="E8" s="21">
         <v>0.17080000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="21">
+        <v>0.2147</v>
+      </c>
+      <c r="G8" s="21">
         <v>0.10340000000000001</v>
       </c>
-      <c r="F8">
+      <c r="H8" s="27">
         <v>0.1036</v>
       </c>
-      <c r="G8" s="10">
+      <c r="I8" s="27"/>
+      <c r="J8" s="18">
         <v>0.1032</v>
       </c>
-      <c r="H8" s="19">
+      <c r="K8" s="21">
         <v>0.1074</v>
       </c>
-      <c r="I8">
+      <c r="L8" s="12">
         <v>0.10349999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="17">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="23">
+        <v>0.1237</v>
+      </c>
+      <c r="E9" s="23">
         <v>0.11650000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="23">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="G9" s="23">
         <v>0.12740000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="H9" s="27">
         <v>0.1275</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I9" s="27"/>
+      <c r="J9" s="24">
         <v>0.12839999999999999</v>
       </c>
-      <c r="H9" s="22">
+      <c r="K9" s="23">
         <v>0.1605</v>
       </c>
-      <c r="I9" s="6">
+      <c r="L9" s="15">
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="21">
         <v>0.29749999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="21">
+        <v>0.1207</v>
+      </c>
+      <c r="E10" s="21">
         <v>0.29749999999999999</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="21">
+        <v>0.1207</v>
+      </c>
+      <c r="G10" s="21">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F10">
+      <c r="H10" s="27">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G10" s="10">
+      <c r="I10" s="27"/>
+      <c r="J10" s="18">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H10" s="19">
+      <c r="K10" s="21">
         <v>1.4E-3</v>
       </c>
-      <c r="I10">
+      <c r="L10" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="H14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="I14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="K14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="L14" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="21">
         <v>1.3453999999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="21">
+        <v>1.1063000000000001</v>
+      </c>
+      <c r="E15" s="21">
         <v>1.6735</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="21">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="G15" s="21">
         <v>0.90720000000000001</v>
       </c>
-      <c r="F15">
+      <c r="H15" s="27">
         <v>0.90129999999999999</v>
       </c>
-      <c r="G15" s="10">
+      <c r="I15" s="27"/>
+      <c r="J15" s="18">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H15" s="19">
+      <c r="K15" s="21">
         <v>0.13880000000000001</v>
       </c>
-      <c r="I15">
+      <c r="L15" s="12">
         <v>0.90159999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="21">
         <v>1.2756000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="21">
+        <v>1.7525999999999999</v>
+      </c>
+      <c r="E16" s="21">
         <v>1.7665999999999999</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="21">
+        <v>1.8143</v>
+      </c>
+      <c r="G16" s="21">
         <v>0.96599999999999997</v>
       </c>
-      <c r="F16">
+      <c r="H16" s="27">
         <v>0.95640000000000003</v>
       </c>
-      <c r="G16" s="10">
+      <c r="I16" s="27"/>
+      <c r="J16" s="18">
         <v>1.0222</v>
       </c>
-      <c r="H16" s="19">
+      <c r="K16" s="21">
         <v>1.1033999999999999</v>
       </c>
-      <c r="I16">
+      <c r="L16" s="12">
         <v>0.98860000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="23">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="23">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="E17" s="23">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="23">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="G17" s="23">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="H17" s="27">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="I17" s="27"/>
+      <c r="J17" s="16">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="H17" s="21">
+      <c r="K17" s="23">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="L17" s="15">
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="21">
         <v>0.85729999999999995</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="21">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="E18" s="21">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="21">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="G18" s="21">
         <v>0.25869999999999999</v>
       </c>
-      <c r="F18">
+      <c r="H18" s="27">
         <v>0.26590000000000003</v>
       </c>
-      <c r="G18" s="10">
+      <c r="I18" s="27"/>
+      <c r="J18" s="18">
         <v>0.2331</v>
       </c>
-      <c r="H18" s="19">
+      <c r="K18" s="21">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="I18">
+      <c r="L18" s="12">
         <v>0.24440000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="13">
         <v>4.0202999999999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="21">
+        <v>3.4417</v>
+      </c>
+      <c r="E19" s="21">
         <v>4.66</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="21">
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="G19" s="21">
         <v>3.8509000000000002</v>
       </c>
-      <c r="F19">
+      <c r="H19" s="27">
         <v>4.1157000000000004</v>
       </c>
-      <c r="G19" s="11">
+      <c r="I19" s="27"/>
+      <c r="J19" s="22">
         <v>4.0395000000000003</v>
       </c>
-      <c r="H19" s="24">
+      <c r="K19" s="21">
         <v>5.0574000000000003</v>
       </c>
-      <c r="I19">
+      <c r="L19" s="12">
         <v>3.8353000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="13">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="21">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E20" s="21">
         <v>0.1656</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="21">
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="G20" s="21">
         <v>8.09E-2</v>
       </c>
-      <c r="F20">
+      <c r="H20" s="27">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="G20" s="11">
+      <c r="I20" s="27"/>
+      <c r="J20" s="22">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="H20" s="24">
+      <c r="K20" s="21">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="I20">
+      <c r="L20" s="12">
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="23">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="23">
+        <v>0.1094</v>
+      </c>
+      <c r="E21" s="23">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="23">
+        <v>0.1285</v>
+      </c>
+      <c r="G21" s="23">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="H21" s="27">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="G21" s="14">
+      <c r="I21" s="27"/>
+      <c r="J21" s="16">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="H21" s="21">
+      <c r="K21" s="23">
         <v>0.1011</v>
       </c>
-      <c r="I21" s="6">
+      <c r="L21" s="15">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="21">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="21">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="E22" s="21">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="21">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="G22" s="21">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F22">
+      <c r="H22" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G22" s="10">
+      <c r="I22" s="27"/>
+      <c r="J22" s="18">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H22" s="19">
+      <c r="K22" s="21">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I22">
+      <c r="L22" s="12">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="K26" s="25"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="21">
         <v>0.12230000000000001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="21">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="E27" s="13">
         <v>0.1057</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="21">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21">
         <v>0.1202</v>
       </c>
-      <c r="G27" s="11">
+      <c r="I27" s="21">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="J27" s="29">
         <v>0.12809999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="21">
         <v>0.28770000000000001</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="21">
+        <v>0.3256</v>
+      </c>
+      <c r="E28" s="13">
         <v>0.2329</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="21">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>0.34620000000000001</v>
       </c>
-      <c r="G28" s="11">
+      <c r="I28" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J28" s="29">
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="6" t="s">
+      <c r="K28" s="30"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="23">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="23">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="E29" s="23">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
+      <c r="F29" s="23">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="17">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="G29" s="14">
+      <c r="I29" s="23">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="J29" s="29">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="21">
         <v>0.4083</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="21">
+        <v>0.1074</v>
+      </c>
+      <c r="E30" s="21">
         <v>0.1537</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="21">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="13">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="G30" s="11">
+      <c r="I30" s="21">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="J30" s="29">
         <v>7.7600000000000002E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="21">
         <v>0.54579999999999995</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="21">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="E31" s="13">
         <v>0.31809999999999999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="21">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21">
         <v>0.74119999999999997</v>
       </c>
-      <c r="G31" s="11">
+      <c r="I31" s="21">
+        <v>0.9899</v>
+      </c>
+      <c r="J31" s="29">
         <v>0.67479999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="21">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="21">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="E32" s="21">
         <v>0.18640000000000001</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="21">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="13">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="G32" s="10">
+      <c r="I32" s="21">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J32" s="29">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="6" t="s">
+      <c r="K32" s="25"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="23">
         <v>0.1439</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="23">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="E33" s="23">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
+      <c r="F33" s="23">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="17">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="G33" s="14">
+      <c r="I33" s="23">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="J33" s="29">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33" s="25"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="21">
         <v>0.30690000000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="21">
+        <v>0.1095</v>
+      </c>
+      <c r="E34" s="21">
         <v>0.30690000000000001</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="21">
+        <v>0.1095</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G34" s="10">
+      <c r="I34" s="21">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="J34" s="29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K34" s="25"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="H38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="I38" s="13"/>
+      <c r="J38" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="K38" s="25"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="21">
         <v>1.2413000000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="21">
+        <v>1.1631</v>
+      </c>
+      <c r="E39" s="21">
         <v>1.2391000000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="21">
+        <v>1.1624000000000001</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="13">
         <v>0.125</v>
       </c>
-      <c r="G39" s="10">
+      <c r="I39" s="21">
+        <v>2.93E-2</v>
+      </c>
+      <c r="J39" s="29">
         <v>0.1245</v>
       </c>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="21">
         <v>1.2202</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="21">
+        <v>1.6478999999999999</v>
+      </c>
+      <c r="E40" s="21">
         <v>1.1217999999999999</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="21">
+        <v>1.5956999999999999</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="13">
         <v>0.39129999999999998</v>
       </c>
-      <c r="G40" s="10">
+      <c r="I40" s="21">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J40" s="29">
         <v>0.42259999999999998</v>
       </c>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="6" t="s">
+      <c r="K40" s="25"/>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="23">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="23">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="E41" s="23">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6">
+      <c r="F41" s="23">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="17">
         <v>2.06E-2</v>
       </c>
-      <c r="G41" s="14">
+      <c r="I41" s="23">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="J41" s="29">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="K41" s="25"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="21">
         <v>0.68510000000000004</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="21">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="E42" s="21">
         <v>0.54990000000000006</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="21">
+        <v>0.112</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="13">
         <v>0.216</v>
       </c>
-      <c r="G42" s="10">
+      <c r="I42" s="21">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="J42" s="29">
         <v>0.2301</v>
       </c>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="21">
         <v>2.0962000000000001</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="21">
+        <v>2.5621</v>
+      </c>
+      <c r="E43" s="21">
         <v>1.9834000000000001</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="21">
+        <v>2.5181</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="13">
         <v>1.9207000000000001</v>
       </c>
-      <c r="G43" s="10">
+      <c r="I43" s="21">
+        <v>2.2746</v>
+      </c>
+      <c r="J43" s="29">
         <v>1.9759</v>
       </c>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="21">
         <v>0.1111</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="21">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="E44" s="21">
         <v>0.14269999999999999</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="21">
+        <v>0.1074</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="13">
         <v>2.07E-2</v>
       </c>
-      <c r="G44" s="10">
+      <c r="I44" s="21">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="J44" s="29">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="6" t="s">
+      <c r="K44" s="25"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="23">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="23">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="E45" s="23">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6">
+      <c r="F45" s="23">
+        <v>0.1008</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="17">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="G45" s="14">
+      <c r="I45" s="23">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J45" s="29">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K45" s="25"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="21">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="21">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="E46" s="21">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="21">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G46" s="10">
+      <c r="I46" s="21">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J46" s="29">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H46" s="19"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2440,200 +2890,320 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE52D54D-64D7-4A21-8D0D-8FEC90DF1760}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="31">
         <v>1.4936</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="31">
+        <v>1.2214</v>
+      </c>
+      <c r="E2" s="31">
         <v>1.4628000000000001</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.2238</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="31">
+        <v>1.2463</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0.22070000000000001</v>
+      </c>
+      <c r="H2" s="31">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="I2" s="31">
         <v>7.51E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="J2" s="31">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K2" s="31">
         <v>7.51E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="L2" s="31">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="31">
         <v>1.4676</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="31">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="E3" s="31">
         <v>1.5238</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.45979999999999999</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="31">
+        <v>1.9875</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I3" s="31">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="J3" s="31">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K3" s="31">
         <v>7.0499999999999993E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="L3" s="31">
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="31">
         <v>0.47649999999999998</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="31">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="E4" s="31">
         <v>0.46210000000000001</v>
       </c>
-      <c r="E4" s="15">
-        <v>0.1019</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="31">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0.1033</v>
+      </c>
+      <c r="H4" s="32">
+        <v>9.69E-2</v>
+      </c>
+      <c r="I4" s="12">
         <v>0.44259999999999999</v>
       </c>
-      <c r="G4">
+      <c r="J4" s="12">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="K4" s="12">
         <v>0.44259999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="L4" s="12">
+        <v>6.2700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="31">
         <v>0.14779999999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="31">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E5" s="31">
         <v>0.1053</v>
       </c>
-      <c r="E5" s="3">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="F5" s="31">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G5" s="31">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="H5" s="31">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="I5" s="31">
         <v>3.09E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J5" s="31">
+        <v>1.03E-2</v>
+      </c>
+      <c r="K5" s="31">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="L5" s="31">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="31">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="31">
+        <v>0.1018</v>
+      </c>
+      <c r="E6" s="31">
         <v>0.18870000000000001</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.30819999999999997</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F6" s="31">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="I6" s="31">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="J6" s="31">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="K6" s="31">
         <v>6.0699999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="L6" s="31">
+        <v>7.8299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="31">
         <v>0.26090000000000002</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="31">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E7" s="31">
         <v>0.2014</v>
       </c>
-      <c r="E7" s="3">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="F7" s="31">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G7" s="31">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="H7" s="31">
+        <v>2.35E-2</v>
+      </c>
+      <c r="I7" s="31">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="J7" s="31">
+        <v>7.6E-3</v>
+      </c>
+      <c r="K7" s="31">
         <v>2.3699999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="L7" s="31">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="31">
         <v>0.4022</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="31">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="E8" s="31">
         <v>0.44869999999999999</v>
       </c>
-      <c r="E8" s="15">
-        <v>0.21820000000000001</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="31">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.2177</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.1018</v>
+      </c>
+      <c r="I8" s="31">
         <v>0.35249999999999998</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="31">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K8" s="31">
         <v>0.30420000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L8" s="31">
+        <v>9.6299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="31">
         <v>0.38040000000000002</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="31">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="E9" s="31">
         <v>0.36930000000000002</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="31">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="G9" s="31">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="31">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I9" s="31">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="31">
         <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/reetamm_uark_edu/Documents/documents/GitHub/nflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAAE44B8-B85D-4698-B8E8-CE56753D87B9}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="6_{62561340-28F8-4B32-AB2C-2EDB3AE13201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A4C029-22E7-42BA-817F-21A9669A50EF}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5340" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6902B945-74B7-E74A-A5D5-95B25980250C}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" state="hidden" r:id="rId1"/>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -253,8 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -264,22 +262,23 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +661,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -705,7 +704,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -746,7 +745,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -787,7 +786,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -828,7 +827,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -871,7 +870,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="24"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -912,7 +911,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="24"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -953,7 +952,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -994,7 +993,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="24"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1144,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1188,7 +1187,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="24"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1228,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="24"/>
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1269,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1310,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1354,7 +1353,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="24"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1394,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="24"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1435,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="24"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1476,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="24"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1572,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89672D6A-14D1-F241-87EF-EAF3331B59EB}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1613,10 +1612,10 @@
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -1630,244 +1629,244 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="26">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="26">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>0.30730000000000002</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="26">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="26">
         <v>0.30480000000000002</v>
       </c>
       <c r="H3" s="27">
         <v>0.31950000000000001</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="22">
+      <c r="J3" s="28">
         <v>0.32840000000000003</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="26">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>0.3216</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="25"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>0.74909999999999999</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="26">
         <v>0.77659999999999996</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="26">
         <v>0.94620000000000004</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="26">
         <v>1.0853999999999999</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="26">
         <v>0.89449999999999996</v>
       </c>
       <c r="H4" s="27">
         <v>0.90810000000000002</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="22">
+      <c r="J4" s="28">
         <v>0.91169999999999995</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="26">
         <v>1.0606</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>0.88160000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="29">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="29">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="29">
         <v>4.87E-2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="29">
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="H5" s="27">
         <v>3.9899999999999998E-2</v>
       </c>
       <c r="I5" s="27"/>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>3.73E-2</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="29">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="26">
         <v>0.54269999999999996</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="26">
         <v>0.15429999999999999</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>0.12559999999999999</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="26">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="26">
         <v>0.13969999999999999</v>
       </c>
       <c r="H6" s="27">
         <v>0.14860000000000001</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="22">
+      <c r="J6" s="28">
         <v>0.14580000000000001</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="26">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="25"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="26">
         <v>1.927</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="26">
         <v>1.5302</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>1.276</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="26">
         <v>1.6495</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="26">
         <v>1.2889999999999999</v>
       </c>
       <c r="H7" s="27">
         <v>1.2894000000000001</v>
       </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="22">
+      <c r="J7" s="28">
         <v>1.3023</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="26">
         <v>1.6036999999999999</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <v>1.2714000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="25"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="26">
         <v>0.1764</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="26">
         <v>0.17530000000000001</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="26">
         <v>0.17080000000000001</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="26">
         <v>0.2147</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="26">
         <v>0.10340000000000001</v>
       </c>
       <c r="H8" s="27">
         <v>0.1036</v>
       </c>
       <c r="I8" s="27"/>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <v>0.1032</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="26">
         <v>0.1074</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <v>0.10349999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="29">
         <v>0.1237</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="29">
         <v>0.11650000000000001</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="29">
         <v>0.15060000000000001</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="29">
         <v>0.12740000000000001</v>
       </c>
       <c r="H9" s="27">
         <v>0.1275</v>
       </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="24">
+      <c r="J9" s="30">
         <v>0.12839999999999999</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="29">
         <v>0.1605</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <v>0.12770000000000001</v>
       </c>
     </row>
@@ -1875,345 +1874,345 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="26">
         <v>0.29749999999999999</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="26">
         <v>0.1207</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="26">
         <v>0.29749999999999999</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="26">
         <v>0.1207</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="26">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="H10" s="27">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="18">
+      <c r="J10" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="26">
         <v>1.4E-3</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="26">
         <v>1.3453999999999999</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="26">
         <v>1.1063000000000001</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="26">
         <v>1.6735</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="26">
         <v>0.89019999999999999</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="26">
         <v>0.90720000000000001</v>
       </c>
       <c r="H15" s="27">
         <v>0.90129999999999999</v>
       </c>
       <c r="I15" s="27"/>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <v>0.89800000000000002</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="26">
         <v>0.13880000000000001</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <v>0.90159999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="25"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="26">
         <v>1.2756000000000001</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="26">
         <v>1.7525999999999999</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="26">
         <v>1.7665999999999999</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="26">
         <v>1.8143</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="26">
         <v>0.96599999999999997</v>
       </c>
       <c r="H16" s="27">
         <v>0.95640000000000003</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="18">
+      <c r="J16" s="16">
         <v>1.0222</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="26">
         <v>1.1033999999999999</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <v>0.98860000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="29">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="29">
         <v>8.1900000000000001E-2</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="29">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="29">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="29">
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="H17" s="27">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I17" s="27"/>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="29">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="26">
         <v>0.85729999999999995</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="26">
         <v>0.23469999999999999</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="26">
         <v>0.47799999999999998</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="26">
         <v>0.14330000000000001</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="26">
         <v>0.25869999999999999</v>
       </c>
       <c r="H18" s="27">
         <v>0.26590000000000003</v>
       </c>
       <c r="I18" s="27"/>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <v>0.2331</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="26">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="10">
         <v>0.24440000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="25"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="26">
         <v>4.0202999999999998</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="26">
         <v>3.4417</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="26">
         <v>4.66</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="26">
         <v>5.7911999999999999</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="26">
         <v>3.8509000000000002</v>
       </c>
       <c r="H19" s="27">
         <v>4.1157000000000004</v>
       </c>
       <c r="I19" s="27"/>
-      <c r="J19" s="22">
+      <c r="J19" s="16">
         <v>4.0395000000000003</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="26">
         <v>5.0574000000000003</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="10">
         <v>3.8353000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="25"/>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="26">
         <v>9.35E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="26">
         <v>0.1656</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="26">
         <v>0.19420000000000001</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="26">
         <v>8.09E-2</v>
       </c>
       <c r="H20" s="27">
         <v>8.4599999999999995E-2</v>
       </c>
       <c r="I20" s="27"/>
-      <c r="J20" s="22">
+      <c r="J20" s="28">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="26">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="10">
         <v>8.48E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="29">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="29">
         <v>0.1094</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="29">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="29">
         <v>0.1285</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="29">
         <v>7.9100000000000004E-2</v>
       </c>
       <c r="H21" s="27">
         <v>7.9399999999999998E-2</v>
       </c>
       <c r="I21" s="27"/>
-      <c r="J21" s="16">
+      <c r="J21" s="14">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="29">
         <v>0.1011</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="13">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
@@ -2221,657 +2220,657 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="26">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="26">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="26">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="26">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H22" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="I22" s="27"/>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="26">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="13"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="26">
         <v>0.12230000000000001</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="26">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <v>0.1057</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="26">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26">
         <v>0.1202</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="26">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="31">
         <v>0.12809999999999999</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="25"/>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="26">
         <v>0.28770000000000001</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="26">
         <v>0.3256</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <v>0.2329</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="26">
         <v>0.32750000000000001</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26">
         <v>0.34620000000000001</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="26">
         <v>0.47799999999999998</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="31">
         <v>0.33500000000000002</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="29">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="29">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="29">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="29">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="17">
+      <c r="G29" s="29"/>
+      <c r="H29" s="15">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="29">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="31">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="26">
         <v>0.4083</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="26">
         <v>0.1074</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="26">
         <v>0.1537</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="26">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="13">
+      <c r="G30" s="26"/>
+      <c r="H30" s="11">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="26">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="31">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="25"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="26">
         <v>0.54579999999999995</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="26">
         <v>0.67430000000000001</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>0.31809999999999999</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="26">
         <v>0.39389999999999997</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26">
         <v>0.74119999999999997</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="26">
         <v>0.9899</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="31">
         <v>0.67479999999999996</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="26">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="26">
         <v>0.12770000000000001</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="26">
         <v>0.18640000000000001</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="26">
         <v>0.11890000000000001</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="13">
+      <c r="G32" s="26"/>
+      <c r="H32" s="11">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="26">
         <v>2.63E-2</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="31">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="29">
         <v>0.1439</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="29">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="29">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="29">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="17">
+      <c r="G33" s="29"/>
+      <c r="H33" s="15">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="29">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="31">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="12"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="26">
         <v>0.30690000000000001</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="26">
         <v>0.1095</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="26">
         <v>0.30690000000000001</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="26">
         <v>0.1095</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="13">
+      <c r="G34" s="26"/>
+      <c r="H34" s="11">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="31">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="12"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="28" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="13"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="26">
         <v>1.2413000000000001</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="26">
         <v>1.1631</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="26">
         <v>1.2391000000000001</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="26">
         <v>1.1624000000000001</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="13">
+      <c r="G39" s="26"/>
+      <c r="H39" s="11">
         <v>0.125</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="26">
         <v>2.93E-2</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="31">
         <v>0.1245</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="12"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="25"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="26">
         <v>1.2202</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="26">
         <v>1.6478999999999999</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="26">
         <v>1.1217999999999999</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="26">
         <v>1.5956999999999999</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="13">
+      <c r="G40" s="26"/>
+      <c r="H40" s="11">
         <v>0.39129999999999998</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="26">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="31">
         <v>0.42259999999999998</v>
       </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="29">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="29">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="29">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="29">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="17">
+      <c r="G41" s="29"/>
+      <c r="H41" s="15">
         <v>2.06E-2</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="29">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="31">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="12"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="26">
         <v>0.68510000000000004</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="26">
         <v>0.16839999999999999</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="26">
         <v>0.54990000000000006</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="26">
         <v>0.112</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="13">
+      <c r="G42" s="26"/>
+      <c r="H42" s="11">
         <v>0.216</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="26">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="31">
         <v>0.2301</v>
       </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="12"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="25"/>
       <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="26">
         <v>2.0962000000000001</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="26">
         <v>2.5621</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="26">
         <v>1.9834000000000001</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="26">
         <v>2.5181</v>
       </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="13">
+      <c r="G43" s="26"/>
+      <c r="H43" s="11">
         <v>1.9207000000000001</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="26">
         <v>2.2746</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="31">
         <v>1.9759</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="12"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="25"/>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="26">
         <v>0.1111</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="26">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="26">
         <v>0.14269999999999999</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="26">
         <v>0.1074</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="13">
+      <c r="G44" s="26"/>
+      <c r="H44" s="11">
         <v>2.07E-2</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="26">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="31">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="12"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="29">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="29">
         <v>0.11210000000000001</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="29">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="29">
         <v>0.1008</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="17">
+      <c r="G45" s="29"/>
+      <c r="H45" s="15">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="29">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="31">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="12"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="26">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="26">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="26">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="26">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="13">
+      <c r="G46" s="26"/>
+      <c r="H46" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="26">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="31">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="12"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2885,6 +2884,7 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2892,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE52D54D-64D7-4A21-8D0D-8FEC90DF1760}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2916,258 +2916,258 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="22">
         <v>1.4936</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="22">
         <v>1.2214</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="22">
         <v>1.4628000000000001</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="22">
         <v>1.2463</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="22">
         <v>0.22070000000000001</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="22">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="22">
         <v>7.51E-2</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="22">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="22">
         <v>7.51E-2</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="22">
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="22">
         <v>1.4676</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="22">
         <v>1.9830000000000001</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="22">
         <v>1.5238</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="22">
         <v>1.9875</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="22">
         <v>0.53269999999999995</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="22">
         <v>0.25600000000000001</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="22">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="22">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="22">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="22">
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="22">
         <v>0.47649999999999998</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="22">
         <v>0.24010000000000001</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="22">
         <v>0.46210000000000001</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="22">
         <v>0.25309999999999999</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="23">
         <v>0.1033</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="23">
         <v>9.69E-2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>0.44259999999999999</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>0.44259999999999999</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>6.2700000000000006E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="22">
         <v>0.14779999999999999</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="22">
         <v>1.52E-2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="22">
         <v>0.1053</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="22">
         <v>6.6E-3</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="22">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="22">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="22">
         <v>3.09E-2</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="22">
         <v>1.03E-2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="22">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="22">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="22">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="22">
         <v>0.1018</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="22">
         <v>0.18870000000000001</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="22">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="22">
         <v>0.31480000000000002</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="22">
         <v>0.28460000000000002</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="22">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="22">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="22">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="22">
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="22">
         <v>0.26090000000000002</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="22">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="22">
         <v>0.2014</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="22">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="22">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="22">
         <v>2.35E-2</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="22">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="22">
         <v>7.6E-3</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="22">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="22">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="24"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="22">
         <v>0.4022</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="22">
         <v>0.24490000000000001</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="22">
         <v>0.44869999999999999</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="22">
         <v>0.23849999999999999</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="23">
         <v>0.2177</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="23">
         <v>0.1018</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="22">
         <v>0.35249999999999998</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="22">
         <v>9.06E-2</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="22">
         <v>0.30420000000000003</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="22">
         <v>9.6299999999999997E-2</v>
       </c>
     </row>
@@ -3175,34 +3175,34 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="22">
         <v>0.38040000000000002</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="22">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="22">
         <v>0.36930000000000002</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="22">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="22">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="22">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="22">
         <v>1E-4</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="22">
         <v>1E-4</v>
       </c>
     </row>
